--- a/docs/download/od_format.xlsx
+++ b/docs/download/od_format.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phillips\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Codes\github-repo\PathCrawlerInPython\docs\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10584"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10584" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="百度地图驾车方式" sheetId="1" r:id="rId1"/>
     <sheet name="百度地图公交方式" sheetId="2" r:id="rId2"/>
     <sheet name="百度地图步行方式" sheetId="3" r:id="rId3"/>
-    <sheet name="高德地图驾车方式" sheetId="4" r:id="rId4"/>
+    <sheet name="百度地图骑行方式" sheetId="5" r:id="rId4"/>
+    <sheet name="高德地图驾车方式" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +99,14 @@
   </si>
   <si>
     <t>destination_lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>destination_region</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -527,7 +536,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -567,6 +576,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>

--- a/docs/download/od_format.xlsx
+++ b/docs/download/od_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10584" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10584" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="百度地图驾车方式" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="百度地图步行方式" sheetId="3" r:id="rId3"/>
     <sheet name="百度地图骑行方式" sheetId="5" r:id="rId4"/>
     <sheet name="高德地图驾车方式" sheetId="4" r:id="rId5"/>
+    <sheet name="高德地图公交方式" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +108,22 @@
   </si>
   <si>
     <t>destination_region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des_city</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -508,7 +525,7 @@
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -523,6 +540,12 @@
       </c>
       <c r="E1" t="s">
         <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -628,7 +651,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -661,4 +684,43 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>